--- a/DaneImport/Pacjenci.xlsx
+++ b/DaneImport/Pacjenci.xlsx
@@ -193,7 +193,7 @@
     <t xml:space="preserve">00-013</t>
   </si>
   <si>
-    <t xml:space="preserve">ul. Niemann'a 84</t>
+    <t xml:space="preserve">ul. Niemanna 84</t>
   </si>
   <si>
     <t xml:space="preserve">Maria</t>
@@ -427,7 +427,7 @@
     <t xml:space="preserve">00-033</t>
   </si>
   <si>
-    <t xml:space="preserve">ul. Niemann'a 85</t>
+    <t xml:space="preserve">ul. Niemanna 85</t>
   </si>
   <si>
     <t xml:space="preserve">Tatiana</t>
@@ -647,6 +647,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -750,11 +751,11 @@
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:F"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="20.71"/>
   </cols>

--- a/DaneImport/Pacjenci.xlsx
+++ b/DaneImport/Pacjenci.xlsx
@@ -752,7 +752,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
